--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -170,6 +167,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,6 +177,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -653,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -810,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1165,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1265,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1365,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1465,15 +1464,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1.1381748073177169E-6</v>
@@ -1481,7 +1480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.56896794733033196</v>
@@ -1489,7 +1488,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1497,7 +1496,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>275</v>
@@ -1505,18 +1504,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1585,10 +1584,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1711,7 +1710,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1955,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1963,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2252,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2374,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2496,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2507,27 +2506,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2535,7 +2522,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2543,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2538,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2559,7 +2546,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2567,7 +2554,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2575,57 +2562,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2640,20 +2627,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2664,80 +2651,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2761,10 +2737,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2823,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -208,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,7 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -236,7 +237,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,6 +312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,31 +641,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +674,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -679,7 +683,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -689,7 +693,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -699,94 +703,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -798,18 +802,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -875,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -943,7 +947,7 @@
         <v>-1.4003737654405362</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>-0.72554572778313509</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1153,18 +1157,118 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
+      </c>
+      <c r="C1">
+        <v>0.8</v>
+      </c>
+      <c r="D1">
+        <v>1.2</v>
+      </c>
+      <c r="E1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="C2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1179,7 +1283,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1252,42 +1356,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>0.4</v>
-      </c>
-      <c r="C1">
-        <v>0.8</v>
-      </c>
-      <c r="D1">
-        <v>1.2</v>
-      </c>
-      <c r="E1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>0.49832739878556714</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1296,111 +1400,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.49832739878556714</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
@@ -1413,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>0.90088986369533997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1453,72 +1457,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>1.1381748073177169E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.56896794733033196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>1.1212345526414251E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>4.2953013658398642E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>9.4248036015180367E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1568,29 +1572,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1622,71 +1626,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1699,246 +1703,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1951,266 +1955,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2222,36 +2226,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2266,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2343,37 +2347,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2405,85 +2409,85 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.48047540317390436</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.24698695197507564</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>0.69471692955640052</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>0.62986599121063958</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>-0.97501548556528583</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>0.95357730839249444</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2494,19 +2498,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2562,59 +2566,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2627,7 +2631,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2635,85 +2639,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2726,24 +2719,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2751,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2759,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2775,10 +2768,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2788,18 +2781,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2865,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2933,7 +2926,7 @@
         <v>-1.4003737654405362</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +2994,7 @@
         <v>-0.72554572778313509</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>0.56973326974852156</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -887,64 +887,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8124954199638362E-2</v>
+        <v>-9.8124954199638403E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19363829099370891</v>
+        <v>-0.19363829099370899</v>
       </c>
       <c r="E2">
         <v>-0.28644137120178198</v>
       </c>
       <c r="F2">
-        <v>-0.37644269487088833</v>
+        <v>-0.37644269487088799</v>
       </c>
       <c r="G2">
-        <v>-0.46355683290063804</v>
+        <v>-0.46355683290063798</v>
       </c>
       <c r="H2">
-        <v>-0.54770832455019292</v>
+        <v>-0.54770832455019303</v>
       </c>
       <c r="I2">
-        <v>-0.62883045118973335</v>
+        <v>-0.62883045118973302</v>
       </c>
       <c r="J2">
-        <v>-0.70686874940796884</v>
+        <v>-0.70686874940796895</v>
       </c>
       <c r="K2">
-        <v>-0.78177967764279477</v>
+        <v>-0.78177967764279499</v>
       </c>
       <c r="L2">
-        <v>-0.85353360455030935</v>
+        <v>-0.85353360455030902</v>
       </c>
       <c r="M2">
-        <v>-0.92211325122373156</v>
+        <v>-0.922113251223732</v>
       </c>
       <c r="N2">
-        <v>-0.98751605104249252</v>
+        <v>-0.98751605104249296</v>
       </c>
       <c r="O2">
-        <v>-1.0497522957535363</v>
+        <v>-1.0497522957535399</v>
       </c>
       <c r="P2">
-        <v>-1.1088468240280629</v>
+        <v>-1.10884682402806</v>
       </c>
       <c r="Q2">
-        <v>-1.1648368630886825</v>
+        <v>-1.1648368630886801</v>
       </c>
       <c r="R2">
-        <v>-1.2177730753740379</v>
+        <v>-1.2177730753740399</v>
       </c>
       <c r="S2">
-        <v>-1.267717153165961</v>
+        <v>-1.2677171531659599</v>
       </c>
       <c r="T2">
-        <v>-1.3147423188654515</v>
+        <v>-1.3147423188654499</v>
       </c>
       <c r="U2">
-        <v>-1.3589307818043956</v>
+        <v>-1.3589307818044001</v>
       </c>
       <c r="V2">
-        <v>-1.4003737654405362</v>
+        <v>-1.4003737654405399</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -955,64 +955,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1593757840987376E-2</v>
+        <v>-6.1593757840987397E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12005322186865837</v>
+        <v>-0.12005322186865799</v>
       </c>
       <c r="E3">
-        <v>-0.17541830971682235</v>
+        <v>-0.17541830971682201</v>
       </c>
       <c r="F3">
-        <v>-0.22774208900282589</v>
+        <v>-0.227742089002826</v>
       </c>
       <c r="G3">
-        <v>-0.27708847170423911</v>
+        <v>-0.277088471704239</v>
       </c>
       <c r="H3">
-        <v>-0.32353266665600583</v>
+        <v>-0.323532666656006</v>
       </c>
       <c r="I3">
-        <v>-0.36715863213789063</v>
+        <v>-0.36715863213789102</v>
       </c>
       <c r="J3">
-        <v>-0.40805913833851859</v>
+        <v>-0.40805913833851898</v>
       </c>
       <c r="K3">
-        <v>-0.44633323145123038</v>
+        <v>-0.44633323145122999</v>
       </c>
       <c r="L3">
-        <v>-0.48208606276709259</v>
+        <v>-0.48208606276709298</v>
       </c>
       <c r="M3">
-        <v>-0.51542649599518675</v>
+        <v>-0.51542649599518697</v>
       </c>
       <c r="N3">
-        <v>-0.54646684598377637</v>
+        <v>-0.54646684598377604</v>
       </c>
       <c r="O3">
-        <v>-0.57532073412601514</v>
+        <v>-0.57532073412601503</v>
       </c>
       <c r="P3">
-        <v>-0.6021028475961081</v>
+        <v>-0.60210284759610799</v>
       </c>
       <c r="Q3">
-        <v>-0.62692710892203973</v>
+        <v>-0.62692710892203996</v>
       </c>
       <c r="R3">
-        <v>-0.64990652694603268</v>
+        <v>-0.64990652694603301</v>
       </c>
       <c r="S3">
-        <v>-0.67115170642798161</v>
+        <v>-0.67115170642798205</v>
       </c>
       <c r="T3">
-        <v>-0.69077082417346414</v>
+        <v>-0.69077082417346403</v>
       </c>
       <c r="U3">
-        <v>-0.7088684705919458</v>
+        <v>-0.70886847059194602</v>
       </c>
       <c r="V3">
-        <v>-0.72554572778313509</v>
+        <v>-0.72554572778313497</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1091,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.7918407790545637E-2</v>
+        <v>-3.7918407790545602E-2</v>
       </c>
       <c r="D5">
         <v>-7.3822810537003097E-2</v>
       </c>
       <c r="E5">
-        <v>-0.10778063762507838</v>
+        <v>-0.107780637625078</v>
       </c>
       <c r="F5">
-        <v>-0.13986119647236303</v>
+        <v>-0.139861196472363</v>
       </c>
       <c r="G5">
-        <v>-0.17013482602424376</v>
+        <v>-0.17013482602424401</v>
       </c>
       <c r="H5">
-        <v>-0.19867294580631792</v>
+        <v>-0.198672945806318</v>
       </c>
       <c r="I5">
-        <v>-0.22554723761501796</v>
+        <v>-0.22554723761501799</v>
       </c>
       <c r="J5">
-        <v>-0.25082965745669189</v>
+        <v>-0.250829657456692</v>
       </c>
       <c r="K5">
-        <v>-0.27459170349636541</v>
+        <v>-0.27459170349636502</v>
       </c>
       <c r="L5">
-        <v>-0.2969044213684392</v>
+        <v>-0.29690442136843898</v>
       </c>
       <c r="M5">
-        <v>-0.31783777120277884</v>
+        <v>-0.31783777120277901</v>
       </c>
       <c r="N5">
-        <v>-0.33746064686446292</v>
+        <v>-0.33746064686446298</v>
       </c>
       <c r="O5">
-        <v>-0.35584034671569204</v>
+        <v>-0.35584034671569198</v>
       </c>
       <c r="P5">
-        <v>-0.37304261832512553</v>
+        <v>-0.37304261832512597</v>
       </c>
       <c r="Q5">
-        <v>-0.38913123064788618</v>
+        <v>-0.38913123064788602</v>
       </c>
       <c r="R5">
-        <v>-0.40416804845810622</v>
+        <v>-0.404168048458106</v>
       </c>
       <c r="S5">
         <v>-0.41821269843499398</v>
       </c>
       <c r="T5">
-        <v>-0.4313226723120358</v>
+        <v>-0.43132267231203603</v>
       </c>
       <c r="U5">
-        <v>-0.44355307606544619</v>
+        <v>-0.44355307606544597</v>
       </c>
       <c r="V5">
-        <v>-0.45495674894280147</v>
+        <v>-0.45495674894280103</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.49832739878556714</v>
+        <v>0.49832739878556698</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.55322150770889023</v>
+        <v>0.55322150770889</v>
       </c>
       <c r="E4">
         <v>0.90088986369533997</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.99788065501380763</v>
+        <v>-0.99788065501380796</v>
       </c>
       <c r="E5">
-        <v>0.99480998279605914</v>
+        <v>0.99480998279605903</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1.1381748073177169E-6</v>
+        <v>1.1381748073177201E-6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>5.6061727632071257E-8</v>
+        <v>5.6061727632071303E-8</v>
       </c>
       <c r="C8">
-        <v>1.1212345526414251E-7</v>
+        <v>1.12123455264143E-7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.1476506829199321E-9</v>
+        <v>2.14765068291993E-9</v>
       </c>
       <c r="C9">
-        <v>4.2953013658398642E-9</v>
+        <v>4.2953013658398601E-9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>9.4248036015180367E-6</v>
+        <v>9.4248036015180401E-6</v>
       </c>
       <c r="C10">
-        <v>9.4248036015180367E-6</v>
+        <v>9.4248036015180401E-6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8.980337545872902E-8</v>
+        <v>8.9803375458728994E-8</v>
       </c>
       <c r="C11">
-        <v>1.3852557921020648E-6</v>
+        <v>1.3852557921020601E-6</v>
       </c>
     </row>
   </sheetData>
@@ -1759,40 +1759,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1800,40 +1800,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1841,40 +1841,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1882,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2011,40 +2011,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2052,40 +2052,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2134,40 +2134,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.48047540317390436</v>
+        <v>0.48</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.24698695197507564</v>
+        <v>0.247</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.69471692955640052</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="E4" s="22">
-        <v>0.62986599121063958</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.97501548556528583</v>
+        <v>-0.97499999999999998</v>
       </c>
       <c r="E5" s="22">
-        <v>0.95357730839249444</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2656,7 +2656,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2665,10 +2665,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2683,13 +2683,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2698,13 +2698,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2866,64 +2866,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8124954199638362E-2</v>
+        <v>-9.8124954199638403E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19363829099370891</v>
+        <v>-0.19363829099370899</v>
       </c>
       <c r="E2">
         <v>-0.28644137120178198</v>
       </c>
       <c r="F2">
-        <v>-0.37644269487088833</v>
+        <v>-0.37644269487088799</v>
       </c>
       <c r="G2">
-        <v>-0.46355683290063804</v>
+        <v>-0.46355683290063798</v>
       </c>
       <c r="H2">
-        <v>-0.54770832455019292</v>
+        <v>-0.54770832455019303</v>
       </c>
       <c r="I2">
-        <v>-0.62883045118973335</v>
+        <v>-0.62883045118973302</v>
       </c>
       <c r="J2">
-        <v>-0.70686874940796884</v>
+        <v>-0.70686874940796895</v>
       </c>
       <c r="K2">
-        <v>-0.78177967764279477</v>
+        <v>-0.78177967764279499</v>
       </c>
       <c r="L2">
-        <v>-0.85353360455030935</v>
+        <v>-0.85353360455030902</v>
       </c>
       <c r="M2">
-        <v>-0.92211325122373156</v>
+        <v>-0.922113251223732</v>
       </c>
       <c r="N2">
-        <v>-0.98751605104249252</v>
+        <v>-0.98751605104249296</v>
       </c>
       <c r="O2">
-        <v>-1.0497522957535363</v>
+        <v>-1.0497522957535399</v>
       </c>
       <c r="P2">
-        <v>-1.1088468240280629</v>
+        <v>-1.10884682402806</v>
       </c>
       <c r="Q2">
-        <v>-1.1648368630886825</v>
+        <v>-1.1648368630886801</v>
       </c>
       <c r="R2">
-        <v>-1.2177730753740379</v>
+        <v>-1.2177730753740399</v>
       </c>
       <c r="S2">
-        <v>-1.267717153165961</v>
+        <v>-1.2677171531659599</v>
       </c>
       <c r="T2">
-        <v>-1.3147423188654515</v>
+        <v>-1.3147423188654499</v>
       </c>
       <c r="U2">
-        <v>-1.3589307818043956</v>
+        <v>-1.3589307818044001</v>
       </c>
       <c r="V2">
-        <v>-1.4003737654405362</v>
+        <v>-1.4003737654405399</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2934,64 +2934,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1593757840987376E-2</v>
+        <v>-6.1593757840987397E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12005322186865837</v>
+        <v>-0.12005322186865799</v>
       </c>
       <c r="E3">
-        <v>-0.17541830971682235</v>
+        <v>-0.17541830971682201</v>
       </c>
       <c r="F3">
-        <v>-0.22774208900282589</v>
+        <v>-0.227742089002826</v>
       </c>
       <c r="G3">
-        <v>-0.27708847170423911</v>
+        <v>-0.277088471704239</v>
       </c>
       <c r="H3">
-        <v>-0.32353266665600583</v>
+        <v>-0.323532666656006</v>
       </c>
       <c r="I3">
-        <v>-0.36715863213789063</v>
+        <v>-0.36715863213789102</v>
       </c>
       <c r="J3">
-        <v>-0.40805913833851859</v>
+        <v>-0.40805913833851898</v>
       </c>
       <c r="K3">
-        <v>-0.44633323145123038</v>
+        <v>-0.44633323145122999</v>
       </c>
       <c r="L3">
-        <v>-0.48208606276709259</v>
+        <v>-0.48208606276709298</v>
       </c>
       <c r="M3">
-        <v>-0.51542649599518675</v>
+        <v>-0.51542649599518697</v>
       </c>
       <c r="N3">
-        <v>-0.54646684598377637</v>
+        <v>-0.54646684598377604</v>
       </c>
       <c r="O3">
-        <v>-0.57532073412601514</v>
+        <v>-0.57532073412601503</v>
       </c>
       <c r="P3">
-        <v>-0.6021028475961081</v>
+        <v>-0.60210284759610799</v>
       </c>
       <c r="Q3">
-        <v>-0.62692710892203973</v>
+        <v>-0.62692710892203996</v>
       </c>
       <c r="R3">
-        <v>-0.64990652694603268</v>
+        <v>-0.64990652694603301</v>
       </c>
       <c r="S3">
-        <v>-0.67115170642798161</v>
+        <v>-0.67115170642798205</v>
       </c>
       <c r="T3">
-        <v>-0.69077082417346414</v>
+        <v>-0.69077082417346403</v>
       </c>
       <c r="U3">
-        <v>-0.7088684705919458</v>
+        <v>-0.70886847059194602</v>
       </c>
       <c r="V3">
-        <v>-0.72554572778313509</v>
+        <v>-0.72554572778313497</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3002,64 +3002,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.2638694426671933E-2</v>
+        <v>8.2638694426671905E-2</v>
       </c>
       <c r="D4">
         <v>0.153075295693896</v>
       </c>
       <c r="E4">
-        <v>0.21348140888750877</v>
+        <v>0.21348140888750899</v>
       </c>
       <c r="F4">
-        <v>0.26553019686029722</v>
+        <v>0.265530196860297</v>
       </c>
       <c r="G4">
-        <v>0.31053745759396123</v>
+        <v>0.31053745759396101</v>
       </c>
       <c r="H4">
-        <v>0.34955766073477479</v>
+        <v>0.34955766073477501</v>
       </c>
       <c r="I4">
-        <v>0.38344803702882968</v>
+        <v>0.38344803702883001</v>
       </c>
       <c r="J4">
-        <v>0.4129155804135346</v>
+        <v>0.41291558041353499</v>
       </c>
       <c r="K4">
-        <v>0.43854933901017157</v>
+        <v>0.43854933901017201</v>
       </c>
       <c r="L4">
         <v>0.46084573661065997</v>
       </c>
       <c r="M4">
-        <v>0.48022613505888123</v>
+        <v>0.48022613505888101</v>
       </c>
       <c r="N4">
         <v>0.49705154896279102</v>
       </c>
       <c r="O4">
-        <v>0.51163277781895666</v>
+        <v>0.511632777818957</v>
       </c>
       <c r="P4">
-        <v>0.52423950195984426</v>
+        <v>0.52423950195984403</v>
       </c>
       <c r="Q4">
         <v>0.53510640939092702</v>
       </c>
       <c r="R4">
-        <v>0.5444391163025637</v>
+        <v>0.54443911630256403</v>
       </c>
       <c r="S4">
-        <v>0.5524180183708205</v>
+        <v>0.55241801837082005</v>
       </c>
       <c r="T4">
-        <v>0.55920231678952637</v>
+        <v>0.55920231678952603</v>
       </c>
       <c r="U4">
-        <v>0.56493252074786771</v>
+        <v>0.56493252074786804</v>
       </c>
       <c r="V4">
-        <v>0.56973326974852156</v>
+        <v>0.56973326974852201</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3070,64 +3070,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2438664855021831E-2</v>
+        <v>-7.2438664855021803E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14517775927368209</v>
+        <v>-0.14517775927368201</v>
       </c>
       <c r="E5">
-        <v>-0.21807681198044884</v>
+        <v>-0.21807681198044901</v>
       </c>
       <c r="F5">
-        <v>-0.29098326512616068</v>
+        <v>-0.29098326512616102</v>
       </c>
       <c r="G5">
-        <v>-0.36373790696585151</v>
+        <v>-0.36373790696585201</v>
       </c>
       <c r="H5">
-        <v>-0.43617762189352993</v>
+        <v>-0.43617762189352999</v>
       </c>
       <c r="I5">
-        <v>-0.50813918327648944</v>
+        <v>-0.50813918327648899</v>
       </c>
       <c r="J5">
-        <v>-0.57946083191956976</v>
+        <v>-0.57946083191956999</v>
       </c>
       <c r="K5">
-        <v>-0.64998483767980675</v>
+        <v>-0.64998483767980697</v>
       </c>
       <c r="L5">
-        <v>-0.71955838715088971</v>
+        <v>-0.71955838715089004</v>
       </c>
       <c r="M5">
-        <v>-0.7880353377560303</v>
+        <v>-0.78803533775602996</v>
       </c>
       <c r="N5">
-        <v>-0.85527676357778348</v>
+        <v>-0.85527676357778304</v>
       </c>
       <c r="O5">
-        <v>-0.9211521909720648</v>
+        <v>-0.92115219097206502</v>
       </c>
       <c r="P5">
-        <v>-0.98554000136703779</v>
+        <v>-0.98554000136703801</v>
       </c>
       <c r="Q5">
         <v>-1.04832831104985</v>
       </c>
       <c r="R5">
-        <v>-1.1094153108778153</v>
+        <v>-1.10941531087782</v>
       </c>
       <c r="S5">
-        <v>-1.1687098609714741</v>
+        <v>-1.1687098609714699</v>
       </c>
       <c r="T5">
-        <v>-1.2261317703425467</v>
+        <v>-1.2261317703425501</v>
       </c>
       <c r="U5">
-        <v>-1.2816121223562569</v>
+        <v>-1.28161212235626</v>
       </c>
       <c r="V5">
-        <v>-1.3350934523882607</v>
+        <v>-1.33509345238826</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_4_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -887,64 +887,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8124954199638403E-2</v>
+        <v>-9.8124954199638362E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19363829099370899</v>
+        <v>-0.19363829099370891</v>
       </c>
       <c r="E2">
         <v>-0.28644137120178198</v>
       </c>
       <c r="F2">
-        <v>-0.37644269487088799</v>
+        <v>-0.37644269487088833</v>
       </c>
       <c r="G2">
-        <v>-0.46355683290063798</v>
+        <v>-0.46355683290063804</v>
       </c>
       <c r="H2">
-        <v>-0.54770832455019303</v>
+        <v>-0.54770832455019292</v>
       </c>
       <c r="I2">
-        <v>-0.62883045118973302</v>
+        <v>-0.62883045118973335</v>
       </c>
       <c r="J2">
-        <v>-0.70686874940796895</v>
+        <v>-0.70686874940796884</v>
       </c>
       <c r="K2">
-        <v>-0.78177967764279499</v>
+        <v>-0.78177967764279477</v>
       </c>
       <c r="L2">
-        <v>-0.85353360455030902</v>
+        <v>-0.85353360455030935</v>
       </c>
       <c r="M2">
-        <v>-0.922113251223732</v>
+        <v>-0.92211325122373156</v>
       </c>
       <c r="N2">
-        <v>-0.98751605104249296</v>
+        <v>-0.98751605104249252</v>
       </c>
       <c r="O2">
-        <v>-1.0497522957535399</v>
+        <v>-1.0497522957535363</v>
       </c>
       <c r="P2">
-        <v>-1.10884682402806</v>
+        <v>-1.1088468240280629</v>
       </c>
       <c r="Q2">
-        <v>-1.1648368630886801</v>
+        <v>-1.1648368630886825</v>
       </c>
       <c r="R2">
-        <v>-1.2177730753740399</v>
+        <v>-1.2177730753740379</v>
       </c>
       <c r="S2">
-        <v>-1.2677171531659599</v>
+        <v>-1.267717153165961</v>
       </c>
       <c r="T2">
-        <v>-1.3147423188654499</v>
+        <v>-1.3147423188654515</v>
       </c>
       <c r="U2">
-        <v>-1.3589307818044001</v>
+        <v>-1.3589307818043956</v>
       </c>
       <c r="V2">
-        <v>-1.4003737654405399</v>
+        <v>-1.4003737654405362</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -955,64 +955,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1593757840987397E-2</v>
+        <v>-6.1593757840987376E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12005322186865799</v>
+        <v>-0.12005322186865837</v>
       </c>
       <c r="E3">
-        <v>-0.17541830971682201</v>
+        <v>-0.17541830971682235</v>
       </c>
       <c r="F3">
-        <v>-0.227742089002826</v>
+        <v>-0.22774208900282589</v>
       </c>
       <c r="G3">
-        <v>-0.277088471704239</v>
+        <v>-0.27708847170423911</v>
       </c>
       <c r="H3">
-        <v>-0.323532666656006</v>
+        <v>-0.32353266665600583</v>
       </c>
       <c r="I3">
-        <v>-0.36715863213789102</v>
+        <v>-0.36715863213789063</v>
       </c>
       <c r="J3">
-        <v>-0.40805913833851898</v>
+        <v>-0.40805913833851859</v>
       </c>
       <c r="K3">
-        <v>-0.44633323145122999</v>
+        <v>-0.44633323145123038</v>
       </c>
       <c r="L3">
-        <v>-0.48208606276709298</v>
+        <v>-0.48208606276709259</v>
       </c>
       <c r="M3">
-        <v>-0.51542649599518697</v>
+        <v>-0.51542649599518675</v>
       </c>
       <c r="N3">
-        <v>-0.54646684598377604</v>
+        <v>-0.54646684598377637</v>
       </c>
       <c r="O3">
-        <v>-0.57532073412601503</v>
+        <v>-0.57532073412601514</v>
       </c>
       <c r="P3">
-        <v>-0.60210284759610799</v>
+        <v>-0.6021028475961081</v>
       </c>
       <c r="Q3">
-        <v>-0.62692710892203996</v>
+        <v>-0.62692710892203973</v>
       </c>
       <c r="R3">
-        <v>-0.64990652694603301</v>
+        <v>-0.64990652694603268</v>
       </c>
       <c r="S3">
-        <v>-0.67115170642798205</v>
+        <v>-0.67115170642798161</v>
       </c>
       <c r="T3">
-        <v>-0.69077082417346403</v>
+        <v>-0.69077082417346414</v>
       </c>
       <c r="U3">
-        <v>-0.70886847059194602</v>
+        <v>-0.7088684705919458</v>
       </c>
       <c r="V3">
-        <v>-0.72554572778313497</v>
+        <v>-0.72554572778313509</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1091,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.7918407790545602E-2</v>
+        <v>-3.7918407790545637E-2</v>
       </c>
       <c r="D5">
         <v>-7.3822810537003097E-2</v>
       </c>
       <c r="E5">
-        <v>-0.107780637625078</v>
+        <v>-0.10778063762507838</v>
       </c>
       <c r="F5">
-        <v>-0.139861196472363</v>
+        <v>-0.13986119647236303</v>
       </c>
       <c r="G5">
-        <v>-0.17013482602424401</v>
+        <v>-0.17013482602424376</v>
       </c>
       <c r="H5">
-        <v>-0.198672945806318</v>
+        <v>-0.19867294580631792</v>
       </c>
       <c r="I5">
-        <v>-0.22554723761501799</v>
+        <v>-0.22554723761501796</v>
       </c>
       <c r="J5">
-        <v>-0.250829657456692</v>
+        <v>-0.25082965745669189</v>
       </c>
       <c r="K5">
-        <v>-0.27459170349636502</v>
+        <v>-0.27459170349636541</v>
       </c>
       <c r="L5">
-        <v>-0.29690442136843898</v>
+        <v>-0.2969044213684392</v>
       </c>
       <c r="M5">
-        <v>-0.31783777120277901</v>
+        <v>-0.31783777120277884</v>
       </c>
       <c r="N5">
-        <v>-0.33746064686446298</v>
+        <v>-0.33746064686446292</v>
       </c>
       <c r="O5">
-        <v>-0.35584034671569198</v>
+        <v>-0.35584034671569204</v>
       </c>
       <c r="P5">
-        <v>-0.37304261832512597</v>
+        <v>-0.37304261832512553</v>
       </c>
       <c r="Q5">
-        <v>-0.38913123064788602</v>
+        <v>-0.38913123064788618</v>
       </c>
       <c r="R5">
-        <v>-0.404168048458106</v>
+        <v>-0.40416804845810622</v>
       </c>
       <c r="S5">
         <v>-0.41821269843499398</v>
       </c>
       <c r="T5">
-        <v>-0.43132267231203603</v>
+        <v>-0.4313226723120358</v>
       </c>
       <c r="U5">
-        <v>-0.44355307606544597</v>
+        <v>-0.44355307606544619</v>
       </c>
       <c r="V5">
-        <v>-0.45495674894280103</v>
+        <v>-0.45495674894280147</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.49832739878556698</v>
+        <v>0.49832739878556714</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.55322150770889</v>
+        <v>0.55322150770889023</v>
       </c>
       <c r="E4">
         <v>0.90088986369533997</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.99788065501380796</v>
+        <v>-0.99788065501380763</v>
       </c>
       <c r="E5">
-        <v>0.99480998279605903</v>
+        <v>0.99480998279605914</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1.1381748073177201E-6</v>
+        <v>1.1381748073177169E-6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>5.6061727632071303E-8</v>
+        <v>5.6061727632071257E-8</v>
       </c>
       <c r="C8">
-        <v>1.12123455264143E-7</v>
+        <v>1.1212345526414251E-7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.14765068291993E-9</v>
+        <v>2.1476506829199321E-9</v>
       </c>
       <c r="C9">
-        <v>4.2953013658398601E-9</v>
+        <v>4.2953013658398642E-9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>9.4248036015180401E-6</v>
+        <v>9.4248036015180367E-6</v>
       </c>
       <c r="C10">
-        <v>9.4248036015180401E-6</v>
+        <v>9.4248036015180367E-6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8.9803375458728994E-8</v>
+        <v>8.980337545872902E-8</v>
       </c>
       <c r="C11">
-        <v>1.3852557921020601E-6</v>
+        <v>1.3852557921020648E-6</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1759,40 +1759,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1800,40 +1800,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1841,40 +1841,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1882,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2011,40 +2011,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2052,40 +2052,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2134,40 +2134,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.48</v>
+        <v>0.48047540317390436</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.247</v>
+        <v>0.24698695197507564</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.69499999999999995</v>
+        <v>0.69471692955640052</v>
       </c>
       <c r="E4" s="22">
-        <v>0.63</v>
+        <v>0.62986599121063958</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.97499999999999998</v>
+        <v>-0.97501548556528583</v>
       </c>
       <c r="E5" s="22">
-        <v>0.95399999999999996</v>
+        <v>0.95357730839249444</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2656,7 +2656,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2665,10 +2665,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2683,13 +2683,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2698,13 +2698,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2866,64 +2866,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8124954199638403E-2</v>
+        <v>-9.8124954199638362E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19363829099370899</v>
+        <v>-0.19363829099370891</v>
       </c>
       <c r="E2">
         <v>-0.28644137120178198</v>
       </c>
       <c r="F2">
-        <v>-0.37644269487088799</v>
+        <v>-0.37644269487088833</v>
       </c>
       <c r="G2">
-        <v>-0.46355683290063798</v>
+        <v>-0.46355683290063804</v>
       </c>
       <c r="H2">
-        <v>-0.54770832455019303</v>
+        <v>-0.54770832455019292</v>
       </c>
       <c r="I2">
-        <v>-0.62883045118973302</v>
+        <v>-0.62883045118973335</v>
       </c>
       <c r="J2">
-        <v>-0.70686874940796895</v>
+        <v>-0.70686874940796884</v>
       </c>
       <c r="K2">
-        <v>-0.78177967764279499</v>
+        <v>-0.78177967764279477</v>
       </c>
       <c r="L2">
-        <v>-0.85353360455030902</v>
+        <v>-0.85353360455030935</v>
       </c>
       <c r="M2">
-        <v>-0.922113251223732</v>
+        <v>-0.92211325122373156</v>
       </c>
       <c r="N2">
-        <v>-0.98751605104249296</v>
+        <v>-0.98751605104249252</v>
       </c>
       <c r="O2">
-        <v>-1.0497522957535399</v>
+        <v>-1.0497522957535363</v>
       </c>
       <c r="P2">
-        <v>-1.10884682402806</v>
+        <v>-1.1088468240280629</v>
       </c>
       <c r="Q2">
-        <v>-1.1648368630886801</v>
+        <v>-1.1648368630886825</v>
       </c>
       <c r="R2">
-        <v>-1.2177730753740399</v>
+        <v>-1.2177730753740379</v>
       </c>
       <c r="S2">
-        <v>-1.2677171531659599</v>
+        <v>-1.267717153165961</v>
       </c>
       <c r="T2">
-        <v>-1.3147423188654499</v>
+        <v>-1.3147423188654515</v>
       </c>
       <c r="U2">
-        <v>-1.3589307818044001</v>
+        <v>-1.3589307818043956</v>
       </c>
       <c r="V2">
-        <v>-1.4003737654405399</v>
+        <v>-1.4003737654405362</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2934,64 +2934,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1593757840987397E-2</v>
+        <v>-6.1593757840987376E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12005322186865799</v>
+        <v>-0.12005322186865837</v>
       </c>
       <c r="E3">
-        <v>-0.17541830971682201</v>
+        <v>-0.17541830971682235</v>
       </c>
       <c r="F3">
-        <v>-0.227742089002826</v>
+        <v>-0.22774208900282589</v>
       </c>
       <c r="G3">
-        <v>-0.277088471704239</v>
+        <v>-0.27708847170423911</v>
       </c>
       <c r="H3">
-        <v>-0.323532666656006</v>
+        <v>-0.32353266665600583</v>
       </c>
       <c r="I3">
-        <v>-0.36715863213789102</v>
+        <v>-0.36715863213789063</v>
       </c>
       <c r="J3">
-        <v>-0.40805913833851898</v>
+        <v>-0.40805913833851859</v>
       </c>
       <c r="K3">
-        <v>-0.44633323145122999</v>
+        <v>-0.44633323145123038</v>
       </c>
       <c r="L3">
-        <v>-0.48208606276709298</v>
+        <v>-0.48208606276709259</v>
       </c>
       <c r="M3">
-        <v>-0.51542649599518697</v>
+        <v>-0.51542649599518675</v>
       </c>
       <c r="N3">
-        <v>-0.54646684598377604</v>
+        <v>-0.54646684598377637</v>
       </c>
       <c r="O3">
-        <v>-0.57532073412601503</v>
+        <v>-0.57532073412601514</v>
       </c>
       <c r="P3">
-        <v>-0.60210284759610799</v>
+        <v>-0.6021028475961081</v>
       </c>
       <c r="Q3">
-        <v>-0.62692710892203996</v>
+        <v>-0.62692710892203973</v>
       </c>
       <c r="R3">
-        <v>-0.64990652694603301</v>
+        <v>-0.64990652694603268</v>
       </c>
       <c r="S3">
-        <v>-0.67115170642798205</v>
+        <v>-0.67115170642798161</v>
       </c>
       <c r="T3">
-        <v>-0.69077082417346403</v>
+        <v>-0.69077082417346414</v>
       </c>
       <c r="U3">
-        <v>-0.70886847059194602</v>
+        <v>-0.7088684705919458</v>
       </c>
       <c r="V3">
-        <v>-0.72554572778313497</v>
+        <v>-0.72554572778313509</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3002,64 +3002,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.2638694426671905E-2</v>
+        <v>8.2638694426671933E-2</v>
       </c>
       <c r="D4">
         <v>0.153075295693896</v>
       </c>
       <c r="E4">
-        <v>0.21348140888750899</v>
+        <v>0.21348140888750877</v>
       </c>
       <c r="F4">
-        <v>0.265530196860297</v>
+        <v>0.26553019686029722</v>
       </c>
       <c r="G4">
-        <v>0.31053745759396101</v>
+        <v>0.31053745759396123</v>
       </c>
       <c r="H4">
-        <v>0.34955766073477501</v>
+        <v>0.34955766073477479</v>
       </c>
       <c r="I4">
-        <v>0.38344803702883001</v>
+        <v>0.38344803702882968</v>
       </c>
       <c r="J4">
-        <v>0.41291558041353499</v>
+        <v>0.4129155804135346</v>
       </c>
       <c r="K4">
-        <v>0.43854933901017201</v>
+        <v>0.43854933901017157</v>
       </c>
       <c r="L4">
         <v>0.46084573661065997</v>
       </c>
       <c r="M4">
-        <v>0.48022613505888101</v>
+        <v>0.48022613505888123</v>
       </c>
       <c r="N4">
         <v>0.49705154896279102</v>
       </c>
       <c r="O4">
-        <v>0.511632777818957</v>
+        <v>0.51163277781895666</v>
       </c>
       <c r="P4">
-        <v>0.52423950195984403</v>
+        <v>0.52423950195984426</v>
       </c>
       <c r="Q4">
         <v>0.53510640939092702</v>
       </c>
       <c r="R4">
-        <v>0.54443911630256403</v>
+        <v>0.5444391163025637</v>
       </c>
       <c r="S4">
-        <v>0.55241801837082005</v>
+        <v>0.5524180183708205</v>
       </c>
       <c r="T4">
-        <v>0.55920231678952603</v>
+        <v>0.55920231678952637</v>
       </c>
       <c r="U4">
-        <v>0.56493252074786804</v>
+        <v>0.56493252074786771</v>
       </c>
       <c r="V4">
-        <v>0.56973326974852201</v>
+        <v>0.56973326974852156</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3070,64 +3070,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2438664855021803E-2</v>
+        <v>-7.2438664855021831E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14517775927368201</v>
+        <v>-0.14517775927368209</v>
       </c>
       <c r="E5">
-        <v>-0.21807681198044901</v>
+        <v>-0.21807681198044884</v>
       </c>
       <c r="F5">
-        <v>-0.29098326512616102</v>
+        <v>-0.29098326512616068</v>
       </c>
       <c r="G5">
-        <v>-0.36373790696585201</v>
+        <v>-0.36373790696585151</v>
       </c>
       <c r="H5">
-        <v>-0.43617762189352999</v>
+        <v>-0.43617762189352993</v>
       </c>
       <c r="I5">
-        <v>-0.50813918327648899</v>
+        <v>-0.50813918327648944</v>
       </c>
       <c r="J5">
-        <v>-0.57946083191956999</v>
+        <v>-0.57946083191956976</v>
       </c>
       <c r="K5">
-        <v>-0.64998483767980697</v>
+        <v>-0.64998483767980675</v>
       </c>
       <c r="L5">
-        <v>-0.71955838715089004</v>
+        <v>-0.71955838715088971</v>
       </c>
       <c r="M5">
-        <v>-0.78803533775602996</v>
+        <v>-0.7880353377560303</v>
       </c>
       <c r="N5">
-        <v>-0.85527676357778304</v>
+        <v>-0.85527676357778348</v>
       </c>
       <c r="O5">
-        <v>-0.92115219097206502</v>
+        <v>-0.9211521909720648</v>
       </c>
       <c r="P5">
-        <v>-0.98554000136703801</v>
+        <v>-0.98554000136703779</v>
       </c>
       <c r="Q5">
         <v>-1.04832831104985</v>
       </c>
       <c r="R5">
-        <v>-1.10941531087782</v>
+        <v>-1.1094153108778153</v>
       </c>
       <c r="S5">
-        <v>-1.1687098609714699</v>
+        <v>-1.1687098609714741</v>
       </c>
       <c r="T5">
-        <v>-1.2261317703425501</v>
+        <v>-1.2261317703425467</v>
       </c>
       <c r="U5">
-        <v>-1.28161212235626</v>
+        <v>-1.2816121223562569</v>
       </c>
       <c r="V5">
-        <v>-1.33509345238826</v>
+        <v>-1.3350934523882607</v>
       </c>
     </row>
   </sheetData>
